--- a/DataCreation/data/login.xlsx
+++ b/DataCreation/data/login.xlsx
@@ -55,13 +55,13 @@
     <t>access_token</t>
   </si>
   <si>
-    <t>OUZBMTY3OUEwM0RFMzUxMEI1QzhCM0RDMEI2QzQyQjRGMTYxNURERUQxQTA4NjBFRTZFQjk0RDNFMDA0NDA5RQ==</t>
+    <t>ODVCNEY4MjlCMDA1MDhDMzBCMDE1NzJGNjI3RUM2MzI0NTI1NTM1MDQyNzFGRDlEOEVGQTg2MzcwMTg2NDUwOQ==</t>
   </si>
   <si>
     <t>http://dev-api.xlink.cn</t>
   </si>
   <si>
-    <t>RjExQzZDQ0MwRUY1OTNEMzRCMDMwMjlDNzBDNDFFMkEwMUFGQjQ3MDA2RkM3NkYyQjJEOUE0RjBBMjZGMEM0Nw==</t>
+    <t>QkFBNzk1NDRFMUM1REVERjZDOTc5QzIyQTVGQkE0NDFERjM3MEQ1MjAxNEQ4NEM1MkM4QjhCQTExQzUwOTcyNA==</t>
   </si>
   <si>
     <t>http://pro-api.xlink.cn</t>
@@ -70,7 +70,7 @@
     <t>ye.tingjian@xlink.cn</t>
   </si>
   <si>
-    <t>RUQyNjIwN0EzODA3QzQ3OUI2QjE5MzI1NzdDQ0VCM0NDOTREQzIzMDcyM0U4MzdDRjQyNjM1RTk2NzFDRTI4Mw==</t>
+    <t>NEI4NjM1MjM1OTkzOURFNEJCNDFGNDBFNzA3Q0Y5M0I3QzBCODNGNUE5QzNBODJBMDVDRjQwOTU4MjNFRTkwMQ==</t>
   </si>
 </sst>
 </file>

--- a/DataCreation/data/login.xlsx
+++ b/DataCreation/data/login.xlsx
@@ -61,7 +61,7 @@
     <t>http://dev-api.xlink.cn</t>
   </si>
   <si>
-    <t>QkFBNzk1NDRFMUM1REVERjZDOTc5QzIyQTVGQkE0NDFERjM3MEQ1MjAxNEQ4NEM1MkM4QjhCQTExQzUwOTcyNA==</t>
+    <t>ODk4M0YwNjJEODNERTUzQzE0MzZGRTA3REQzNzhFRTlEQTQwOTkwNzM0OTlDQjM2OEExMERFOENCQUNFNzk1OQ==</t>
   </si>
   <si>
     <t>http://pro-api.xlink.cn</t>
